--- a/test-data/languagetoggle-data.xlsx
+++ b/test-data/languagetoggle-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cgov_workspace\cgov-digital-platform-qa\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE4EA7-6CA6-48E1-A5CE-C7FF3865C6A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290F03E-A612-4272-8FA3-C0DC854DB6DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6855" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>path</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Espanol</t>
+  </si>
+  <si>
+    <t>expectedtoggle</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,7 +482,7 @@
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +495,11 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -506,8 +512,11 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -534,8 +546,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -548,8 +563,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -562,8 +580,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -576,8 +597,11 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -590,8 +614,11 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -603,6 +630,9 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
